--- a/data/trans_dic/P16A15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,27 +691,27 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 0,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,67; 2,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,15; 1,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,32; 2,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 0,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,22; 2,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,07; 0,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,68; 2,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,09; 0,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,24; 1,57</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,29; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,23; 5,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,82; 4,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,93; 5,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,98; 3,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,73; 4,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,37; 1,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,45; 1,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,47; 3,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,19; 4,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,23; 2,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,24; 2,88</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>3,86; 7,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,08; 10,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>5,66; 9,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,51; 11,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,11; 6,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,86; 11,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,94; 10,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>4,56; 7,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,03; 6,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,98; 10,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,39; 9,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,1; 8,89</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,25%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>10,36; 17,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>15,63; 23,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>12,58; 19,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>16,85; 23,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>11,49; 18,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>18,66; 26,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>16,81; 24,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>18,28; 23,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>12,1; 17,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>18,3; 23,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>15,37; 20,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>18,35; 22,37</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,85%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>15,08; 21,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>28,81; 37,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>25,51; 32,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>28,53; 34,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>21,34; 27,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>30,66; 37,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>26,24; 33,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>36,46; 60,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>19,37; 24,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>31,12; 36,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>26,98; 32,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>34,17; 53,24</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,63%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,02; 6,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,3; 11,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,36; 10,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,35; 13,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,0; 8,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,21; 13,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,02; 12,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,8; 24,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,31; 7,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>10,59; 12,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>9,47; 10,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,03; 20,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,21</t>
+          <t>0,21; 2,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,57</t>
+          <t>0,21; 1,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,05</t>
+          <t>1,98; 5,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,84</t>
+          <t>0,45; 1,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,88</t>
+          <t>1,27; 2,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,58</t>
+          <t>2,84; 10,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,39</t>
+          <t>4,24; 7,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 8,89</t>
+          <t>3,92; 8,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>20,39%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,85; 23,34</t>
+          <t>16,94; 23,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,28; 23,55</t>
+          <t>18,4; 23,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,35; 22,37</t>
+          <t>18,51; 22,55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>55,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>44,95%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,52</t>
+          <t>13,63; 22,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,81; 37,51</t>
+          <t>29,18; 40,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,51; 32,64</t>
+          <t>24,61; 34,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,53; 34,13</t>
+          <t>24,42; 31,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,34; 27,7</t>
+          <t>20,73; 29,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,66; 37,48</t>
+          <t>27,57; 37,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,24; 33,51</t>
+          <t>23,41; 33,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,46; 60,06</t>
+          <t>31,73; 83,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,37; 24,26</t>
+          <t>18,49; 24,47</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,12; 36,61</t>
+          <t>29,63; 37,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>26,98; 32,12</t>
+          <t>25,66; 32,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,17; 53,24</t>
+          <t>29,53; 74,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>39,32%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>14,15; 24,75</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25,51; 37,71</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24,29; 34,17</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31,04; 40,25</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19,69; 29,43</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30,37; 40,52</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25,99; 36,32</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38,77; 45,12</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 26,1</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>30,29; 37,85</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26,91; 33,87</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36,78; 41,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18,55%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>5,02; 6,61</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>9,3; 11,49</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>8,36; 10,35</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>11,35; 13,52</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8,85; 12,8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>7,0; 8,81</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>11,21; 13,41</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>10,02; 12,14</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>13,8; 24,78</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 32,58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>6,31; 7,46</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>10,59; 12,07</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>9,47; 10,99</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>13,03; 20,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 25,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -864,42 +865,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,81</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,92</t>
+          <t>0,65; 2,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,36</t>
+          <t>0,15; 1,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,11</t>
+          <t>0,31; 2,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,81</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,08</t>
+          <t>0,21; 2,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,17</t>
+          <t>0,72; 2,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,84</t>
+          <t>0,09; 0,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,4</t>
+          <t>0,23; 1,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,74</t>
+          <t>1,33; 3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,06</t>
+          <t>2,2; 5,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,53</t>
+          <t>1,79; 4,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,21</t>
+          <t>1,87; 5,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,19</t>
+          <t>1,14; 3,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,21</t>
+          <t>1,75; 4,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,62</t>
+          <t>0,29; 1,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,81</t>
+          <t>0,47; 1,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,17</t>
+          <t>1,44; 3,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,1</t>
+          <t>2,29; 4,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,75</t>
+          <t>1,25; 2,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,93</t>
+          <t>1,29; 2,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,7</t>
+          <t>3,92; 7,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,59</t>
+          <t>5,87; 10,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,99</t>
+          <t>5,64; 9,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,4</t>
+          <t>3,09; 10,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,94</t>
+          <t>3,24; 6,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,94</t>
+          <t>6,64; 11,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 10,07</t>
+          <t>6,03; 10,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,14</t>
+          <t>4,38; 7,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,66</t>
+          <t>4,0; 6,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,52</t>
+          <t>7,02; 10,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,33</t>
+          <t>6,36; 9,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,12</t>
+          <t>3,39; 8,07</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,36; 17,31</t>
+          <t>10,66; 17,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,63; 23,78</t>
+          <t>15,67; 23,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,58; 19,64</t>
+          <t>12,44; 19,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,55</t>
+          <t>17,23; 23,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,49; 18,94</t>
+          <t>11,7; 19,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,66; 26,71</t>
+          <t>18,87; 27,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,81; 24,02</t>
+          <t>16,65; 24,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,65</t>
+          <t>18,29; 23,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,1; 17,21</t>
+          <t>12,21; 16,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 23,96</t>
+          <t>18,33; 24,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,37; 20,47</t>
+          <t>15,75; 20,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,51; 22,55</t>
+          <t>18,22; 22,37</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,63; 22,27</t>
+          <t>13,38; 21,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,18; 40,5</t>
+          <t>28,45; 40,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,61; 34,47</t>
+          <t>24,69; 34,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,42; 31,82</t>
+          <t>24,11; 31,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,73; 29,54</t>
+          <t>20,92; 29,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,57; 37,73</t>
+          <t>27,83; 37,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,41; 33,18</t>
+          <t>23,5; 32,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,73; 83,51</t>
+          <t>31,5; 81,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,49; 24,47</t>
+          <t>18,29; 24,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,63; 37,33</t>
+          <t>30,09; 37,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,66; 32,26</t>
+          <t>25,53; 32,86</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,53; 74,81</t>
+          <t>29,56; 69,96</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,15; 24,75</t>
+          <t>14,41; 25,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,51; 37,71</t>
+          <t>25,74; 38,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,29; 34,17</t>
+          <t>24,57; 34,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,04; 40,25</t>
+          <t>31,42; 40,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,69; 29,43</t>
+          <t>19,17; 28,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,37; 40,52</t>
+          <t>30,36; 40,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,99; 36,32</t>
+          <t>26,26; 36,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,77; 45,12</t>
+          <t>38,51; 45,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,01; 26,1</t>
+          <t>18,63; 25,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,29; 37,85</t>
+          <t>30,02; 38,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26,91; 33,87</t>
+          <t>27,03; 34,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>36,78; 41,84</t>
+          <t>36,55; 42,2</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,02; 6,61</t>
+          <t>5,02; 6,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,3; 11,49</t>
+          <t>9,12; 11,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,35</t>
+          <t>8,36; 10,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,85; 12,8</t>
+          <t>8,97; 12,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,0; 8,81</t>
+          <t>7,05; 8,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,21; 13,41</t>
+          <t>11,16; 13,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,02; 12,14</t>
+          <t>9,91; 12,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,41; 32,58</t>
+          <t>13,43; 34,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,31; 7,46</t>
+          <t>6,21; 7,52</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,59; 12,07</t>
+          <t>10,54; 12,07</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,47; 10,99</t>
+          <t>9,44; 10,98</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,14; 25,25</t>
+          <t>12,29; 24,35</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2707</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2707</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1950</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1876</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9689</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1962</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9960</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2966</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5836</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16292</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5496</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6742</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4430; 19048</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>899; 8951</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6409</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5901</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1874; 13280</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4521</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1054; 10952</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>944; 8958</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9365; 27590</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1015; 8692</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2132; 12327</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15121</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23613</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19738</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16714</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13534</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19103</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4917</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28655</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42715</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25293</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21631</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8475; 24327</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14976; 34869</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11944; 31719</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10019; 26844</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7853; 23715</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12362; 29328</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1939; 11375</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2538; 9554</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19154; 40544</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31674; 56532</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16596; 37127</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13947; 31489</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29044</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>49336</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>48578</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>61551</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24832</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>56075</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51178</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40522</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>53876</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>105411</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>99757</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>102072</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20337; 40689</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36064; 63531</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>36453; 64427</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>27469; 92240</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16727; 34960</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40753; 71487</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>39168; 66448</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31213; 51742</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41405; 68335</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>86273; 128511</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>82395; 121014</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54232; 129193</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>53108</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>83133</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>74416</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>112954</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>60916</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>102117</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>100663</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>112339</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>114023</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>185249</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>175079</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>225293</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41216; 67407</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>67006; 102356</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>59445; 93215</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>96552; 130347</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>47259; 76858</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>84307; 122734</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>82743; 121131</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>99665; 127452</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>96516; 133833</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>160278; 213794</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>153560; 202705</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>201404; 247225</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>51134</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>106453</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>98767</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>103026</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>84966</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>115448</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>106663</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>335912</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>136100</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>221901</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>205430</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>438938</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>39133; 63375</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>88130; 124431</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>82542; 115762</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>88765; 116721</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>71731; 100731</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>98525; 133610</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>88760; 123738</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>191651; 493851</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>116215; 156495</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>199709; 251401</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>181795; 233963</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>288706; 683190</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>40267</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>78997</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>74096</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>100424</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>80648</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>136988</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>124985</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>177784</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>120914</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>215986</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>199081</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>278208</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>30253; 53436</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>64304; 95409</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>63135; 87683</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>88854; 114071</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>63995; 96566</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>117406; 155850</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>105103; 147766</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>163557; 192429</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>101323; 140498</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>191124; 242013</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>177615; 228446</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>258567; 298565</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1496</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>190649</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>351988</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>318563</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>395938</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>266762</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>435567</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>389951</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>678408</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>457412</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>787555</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>708514</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1074346</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>164412; 217366</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>311936; 386535</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>283875; 351976</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>310253; 443635</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>238111; 297241</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>395711; 474950</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>351406; 430726</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>491218; 1258568</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>413344; 500464</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>734156; 840868</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>655378; 761595</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>874918; 1732706</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>